--- a/biology/Zoologie/Bergeronnette_grise/Bergeronnette_grise.xlsx
+++ b/biology/Zoologie/Bergeronnette_grise/Bergeronnette_grise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Motacilla alba
-La Bergeronnette grise (Motacilla alba), aussi appelée Hochequeue gris, est une espèce de petits passereaux de la famille des motacillidés la même que les pipits et la sentinelle. Cette espèce niche dans la plus grande partie de l'Europe et de l'Asie, ainsi que dans certaines parties de l'Afrique du Nord. Elle est sédentaire dans la partie la plus douce de son habitat et migre vers le sud dans les autres cas. Autrefois, elle était également appelée « lavandière » comme en parle Georges-Louis Leclerc de Buffon dès 1778. Elle est considérée comme un emblème national en Lettonie[1].
+La Bergeronnette grise (Motacilla alba), aussi appelée Hochequeue gris, est une espèce de petits passereaux de la famille des motacillidés la même que les pipits et la sentinelle. Cette espèce niche dans la plus grande partie de l'Europe et de l'Asie, ainsi que dans certaines parties de l'Afrique du Nord. Elle est sédentaire dans la partie la plus douce de son habitat et migre vers le sud dans les autres cas. Autrefois, elle était également appelée « lavandière » comme en parle Georges-Louis Leclerc de Buffon dès 1778. Elle est considérée comme un emblème national en Lettonie.
 </t>
         </is>
       </c>
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mensuration
-La Bergeronnette grise mesure entre 16 et 19 cm, avec sa longue queue agitée par des hochements, elle pèse environ 25 g.
-Plumage
-La Bergeronnette grise est principalement bicolore. 
-Au printemps, la femelle à moins de noir sur la tête et la gorge, et son front est taché de sombre. 
-En hiver, le mâle a la calotte et le front gris, le gorge et la tête olivâtres. Les jeunes ont le dessus brunâtre et le dessous jaunâtre.
+          <t>Mensuration</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bergeronnette grise mesure entre 16 et 19 cm, avec sa longue queue agitée par des hochements, elle pèse environ 25 g.
 </t>
         </is>
       </c>
@@ -545,22 +558,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Locomotion
-Les bergeronnettes présentent une trajectoire de vol ondulée. À terre, elles agitent constamment leur queue et sont parfois appelées hochequeues.
-Au sol, elles piètent, c'est-à-dire qu'elles marchent, une patte devant l'autre, avec de brusques mouvements de la tête. Elles ne sautillent pas comme un rouge-gorge ou un moineau. On peut assez souvent les voir courir à la poursuite d'insectes, volontiers à proximité d'un petit cours d'eau.
-Alimentation
-C'est un insectivore se nourrissant essentiellement de mouches, de moustiques et de fourmis. Elle peut picorer les insectes au sol, ou les capturer en plein vol.
-Comportement social
-Selon les périodes, la bergeronnette peut présenter un comportement territorial mais en été et en automne, elle forme des dortoirs collectifs, sur des buissons, des arbres ou des roseaux.
-Reproduction
-Elle niche entre avril et août, dans les interstices des murs de pierre, sous les toits, sous les ponts ou dans des trous d'arbres; dans une cavité de falaise, de bâtiment, dans une berge. Son nid en forme de coupe est fait d'herbe, de paille, de feuilles et de racines.
-La femelle pond 5 à 6 œufs gris foncé qu'elle couve pendant 12 à 14 jours. Les oisillons sont aveugles à la naissance et sont nourris par les deux parents. Ils peuvent voler à partir de quinze jours.
-La femelle peut faire 2-3 pontes par an pendant la période de reproduction.
+          <t>Plumage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bergeronnette grise est principalement bicolore. 
+Au printemps, la femelle à moins de noir sur la tête et la gorge, et son front est taché de sombre. 
+En hiver, le mâle a la calotte et le front gris, le gorge et la tête olivâtres. Les jeunes ont le dessus brunâtre et le dessous jaunâtre.
 </t>
         </is>
       </c>
@@ -586,13 +597,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle vit dans des espaces ouverts, souvent à proximité des habitations et des points d'eau.
-Cette espèce niche dans la plus grande partie de l'Europe et de l'Asie, ainsi que dans certaines parties de l'Afrique du Nord. Elle est sédentaire dans la partie la plus douce de son habitat et migre vers le sud dans les autres cas.
+          <t>Locomotion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bergeronnettes présentent une trajectoire de vol ondulée. À terre, elles agitent constamment leur queue et sont parfois appelées hochequeues.
+Au sol, elles piètent, c'est-à-dire qu'elles marchent, une patte devant l'autre, avec de brusques mouvements de la tête. Elles ne sautillent pas comme un rouge-gorge ou un moineau. On peut assez souvent les voir courir à la poursuite d'insectes, volontiers à proximité d'un petit cours d'eau.
 </t>
         </is>
       </c>
@@ -618,12 +635,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sous-espèces</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">De neuf à onze sous-espèces sont actuellement reconnues. La bergeronnette à dos noir peut être considérée comme une espèce distincte et M. a. dukhunensis peut être rattachée à M. a. Alba. Des informations sur les différences de plumage et la distribution des sous-espèces de la bergeronnette grise sont présentées ci-dessous[2].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un insectivore se nourrissant essentiellement de mouches, de moustiques et de fourmis. Elle peut picorer les insectes au sol, ou les capturer en plein vol.
 </t>
         </is>
       </c>
@@ -649,13 +672,161 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comportement social</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les périodes, la bergeronnette peut présenter un comportement territorial mais en été et en automne, elle forme des dortoirs collectifs, sur des buissons, des arbres ou des roseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bergeronnette_grise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergeronnette_grise</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle niche entre avril et août, dans les interstices des murs de pierre, sous les toits, sous les ponts ou dans des trous d'arbres; dans une cavité de falaise, de bâtiment, dans une berge. Son nid en forme de coupe est fait d'herbe, de paille, de feuilles et de racines.
+La femelle pond 5 à 6 œufs gris foncé qu'elle couve pendant 12 à 14 jours. Les oisillons sont aveugles à la naissance et sont nourris par les deux parents. Ils peuvent voler à partir de quinze jours.
+La femelle peut faire 2-3 pontes par an pendant la période de reproduction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bergeronnette_grise</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergeronnette_grise</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit dans des espaces ouverts, souvent à proximité des habitations et des points d'eau.
+Cette espèce niche dans la plus grande partie de l'Europe et de l'Asie, ainsi que dans certaines parties de l'Afrique du Nord. Elle est sédentaire dans la partie la plus douce de son habitat et migre vers le sud dans les autres cas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bergeronnette_grise</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergeronnette_grise</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De neuf à onze sous-espèces sont actuellement reconnues. La bergeronnette à dos noir peut être considérée comme une espèce distincte et M. a. dukhunensis peut être rattachée à M. a. Alba. Des informations sur les différences de plumage et la distribution des sous-espèces de la bergeronnette grise sont présentées ci-dessous.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bergeronnette_grise</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergeronnette_grise</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>La Bergeronnette grise et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-La Bergeronnette grise bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de la détruire, la mutiler, la capturer ou l'enlever, de la perturber intentionnellement ou de la naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'elle soit vivante ou morte, il est aussi interdit de la transporter, colporter, de l'utiliser, de la détenir, de la vendre ou de l'acheter.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Bergeronnette grise bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de la détruire, la mutiler, la capturer ou l'enlever, de la perturber intentionnellement ou de la naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'elle soit vivante ou morte, il est aussi interdit de la transporter, colporter, de l'utiliser, de la détenir, de la vendre ou de l'acheter.
 </t>
         </is>
       </c>
